--- a/test_case/TestCase.xlsx
+++ b/test_case/TestCase.xlsx
@@ -34,13 +34,15 @@
     <t xml:space="preserve">TS21</t>
   </si>
   <si>
-    <t xml:space="preserve">1 . Открыть форму замены номера телефона   
+    <t xml:space="preserve">1 . Открыть форму “Управление профилем”.   
 2. Ввести новый номер и нажать кнопку “Получить код”.
+3. Ввести полученный код в поле “СМС код”и нажать “Подтвердить коды”.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Открывается форма с доступным полем ввода нового номера.
-2.Получено СМС сообщение на новый  номер</t>
+    <t xml:space="preserve">1. Открывается форма управление профилем.
+2.Получено СМС сообщение на новый  номер.
+3. Номер телефона в профиле изменился.</t>
   </si>
   <si>
     <t xml:space="preserve">Title</t>
@@ -288,10 +290,10 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="T11" activeCellId="0" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
